--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Method Name</t>
   </si>
@@ -23,13 +23,22 @@
     <t>Execution Data</t>
   </si>
   <si>
-    <t>got_to_registration_page</t>
+    <t>verifyCustomerNavigationToRegistrationPage</t>
   </si>
   <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>26-10-2024</t>
+    <t>27-10-2024</t>
+  </si>
+  <si>
+    <t>verifyNewCustomerRegistrationSubmissionFlow</t>
+  </si>
+  <si>
+    <t>verifyCustomerRegistrationAndLoginNavigation</t>
+  </si>
+  <si>
+    <t>verifyCustomerEmailActivation</t>
   </si>
 </sst>
 </file>
@@ -76,8 +85,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
@@ -85,13 +97,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.87109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.0390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>
@@ -118,6 +130,39 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Method Name</t>
   </si>
@@ -35,6 +35,9 @@
     <t>verifyNewCustomerRegistrationSubmissionFlow</t>
   </si>
   <si>
+    <t>Failed</t>
+  </si>
+  <si>
     <t>verifyCustomerRegistrationAndLoginNavigation</t>
   </si>
   <si>
@@ -55,7 +58,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -70,6 +73,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
@@ -88,9 +101,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -135,7 +148,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -143,10 +156,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -154,10 +167,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Method Name</t>
   </si>
@@ -35,13 +35,13 @@
     <t>verifyNewCustomerRegistrationSubmissionFlow</t>
   </si>
   <si>
-    <t>Failed</t>
-  </si>
-  <si>
     <t>verifyCustomerRegistrationAndLoginNavigation</t>
   </si>
   <si>
     <t>verifyCustomerEmailActivation</t>
+  </si>
+  <si>
+    <t>verifyCustomerSuccessfulLogin</t>
   </si>
 </sst>
 </file>
@@ -58,7 +58,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -75,16 +75,6 @@
         <fgColor indexed="17"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -98,19 +88,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -148,7 +139,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -156,10 +147,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -167,12 +158,23 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s" s="4">
-        <v>7</v>
+      <c r="B6" t="s" s="5">
+        <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Method Name</t>
   </si>
@@ -23,25 +23,13 @@
     <t>Execution Data</t>
   </si>
   <si>
-    <t>verifyCustomerNavigationToRegistrationPage</t>
+    <t>test</t>
   </si>
   <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>27-10-2024</t>
-  </si>
-  <si>
-    <t>verifyNewCustomerRegistrationSubmissionFlow</t>
-  </si>
-  <si>
-    <t>verifyCustomerRegistrationAndLoginNavigation</t>
-  </si>
-  <si>
-    <t>verifyCustomerEmailActivation</t>
-  </si>
-  <si>
-    <t>verifyCustomerSuccessfulLogin</t>
+    <t>29-10-2024</t>
   </si>
 </sst>
 </file>
@@ -88,12 +76,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
@@ -101,13 +85,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.0390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="14.046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>
@@ -134,50 +118,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s" s="4">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Method Name</t>
   </si>
@@ -23,13 +23,25 @@
     <t>Execution Data</t>
   </si>
   <si>
-    <t>test</t>
+    <t>verifyCustomerNavigationToRegistrationPage</t>
   </si>
   <si>
     <t>Passed</t>
   </si>
   <si>
     <t>29-10-2024</t>
+  </si>
+  <si>
+    <t>verifyNewCustomerRegistrationSubmissionFlow</t>
+  </si>
+  <si>
+    <t>verifyCustomerRegistrationAndLoginNavigation</t>
+  </si>
+  <si>
+    <t>verifyCustomerEmailActivation</t>
+  </si>
+  <si>
+    <t>verifyCustomerSuccessfulLogin</t>
   </si>
 </sst>
 </file>
@@ -76,8 +88,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
@@ -85,13 +101,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.0390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>
@@ -118,6 +134,50 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Method Name</t>
   </si>
@@ -23,25 +23,19 @@
     <t>Execution Data</t>
   </si>
   <si>
-    <t>verifyCustomerNavigationToRegistrationPage</t>
+    <t>verifyCustomerSuccessfulLogin</t>
   </si>
   <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>29-10-2024</t>
+    <t>03-11-2024</t>
   </si>
   <si>
-    <t>verifyNewCustomerRegistrationSubmissionFlow</t>
+    <t>verifyCustomerPreferredPackageSelection</t>
   </si>
   <si>
-    <t>verifyCustomerRegistrationAndLoginNavigation</t>
-  </si>
-  <si>
-    <t>verifyCustomerEmailActivation</t>
-  </si>
-  <si>
-    <t>verifyCustomerSuccessfulLogin</t>
+    <t>verifyCustomerNavigationAfterSaving</t>
   </si>
 </sst>
 </file>
@@ -88,10 +82,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -101,13 +93,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.0390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.81640625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>
@@ -156,28 +148,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s" s="4">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Method Name</t>
   </si>
@@ -29,13 +29,16 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>03-11-2024</t>
+    <t>04-11-2024</t>
   </si>
   <si>
     <t>verifyCustomerPreferredPackageSelection</t>
   </si>
   <si>
     <t>verifyCustomerNavigationAfterSaving</t>
+  </si>
+  <si>
+    <t>verifyCustomerBasicInfoEntry</t>
   </si>
 </sst>
 </file>
@@ -82,8 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -93,7 +97,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -148,6 +152,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
   <si>
     <t>Method Name</t>
   </si>
@@ -23,13 +23,28 @@
     <t>Execution Data</t>
   </si>
   <si>
+    <t>verifyCustomerNavigationToRegistrationPage</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>10-11-2024</t>
+  </si>
+  <si>
+    <t>verifyNewCustomerRegistrationSubmissionFlow</t>
+  </si>
+  <si>
+    <t>verifyCustomerRegistrationAndLoginNavigation</t>
+  </si>
+  <si>
+    <t>verifyCustomerEmailActivation</t>
+  </si>
+  <si>
     <t>verifyCustomerSuccessfulLogin</t>
   </si>
   <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>04-11-2024</t>
+    <t>verifyCustomerNavigationAfterLogin</t>
   </si>
   <si>
     <t>verifyCustomerPreferredPackageSelection</t>
@@ -85,8 +100,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -97,13 +118,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.81640625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.0390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>
@@ -163,6 +184,72 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s" s="6">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s" s="7">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s" s="9">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s" s="10">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
   <si>
     <t>Method Name</t>
   </si>
@@ -44,9 +44,6 @@
     <t>verifyCustomerSuccessfulLogin</t>
   </si>
   <si>
-    <t>verifyCustomerNavigationAfterLogin</t>
-  </si>
-  <si>
     <t>verifyCustomerPreferredPackageSelection</t>
   </si>
   <si>
@@ -54,6 +51,12 @@
   </si>
   <si>
     <t>verifyCustomerBasicInfoEntry</t>
+  </si>
+  <si>
+    <t>verifyCustomerStoreInfoEntry</t>
+  </si>
+  <si>
+    <t>verifyCustomerLicenseInfoEntry</t>
   </si>
 </sst>
 </file>
@@ -100,8 +103,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -118,7 +123,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -230,7 +235,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s" s="9">
         <v>4</v>
@@ -241,12 +246,34 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s" s="10">
         <v>4</v>
       </c>
       <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s" s="11">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s" s="12">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Method Name</t>
   </si>
@@ -29,10 +29,13 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>10-11-2024</t>
+    <t>14-11-2024</t>
   </si>
   <si>
     <t>verifyCustomerCreditCardInfoAndSubmitOrder</t>
+  </si>
+  <si>
+    <t>verifyCustomerNavigationAfterPayment</t>
   </si>
 </sst>
 </file>
@@ -79,8 +82,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
@@ -89,7 +93,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -133,6 +137,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Method Name</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>14-11-2024</t>
+    <t>24-11-2024</t>
   </si>
   <si>
-    <t>verifyCustomerCreditCardInfoAndSubmitOrder</t>
-  </si>
-  <si>
-    <t>verifyCustomerNavigationAfterPayment</t>
+    <t>verifyCustomerLicenseInfoEntry</t>
   </si>
 </sst>
 </file>
@@ -82,9 +79,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
@@ -93,13 +89,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.04296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>
@@ -137,17 +133,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
   <si>
     <t>Method Name</t>
   </si>
@@ -23,16 +23,64 @@
     <t>Execution Data</t>
   </si>
   <si>
+    <t>verifyCustomerNavigationToRegistrationPage</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>29-11-2024</t>
+  </si>
+  <si>
+    <t>verifyNewCustomerRegistrationSubmissionFlow</t>
+  </si>
+  <si>
+    <t>verifyCustomerRegistrationAndLoginNavigation</t>
+  </si>
+  <si>
+    <t>verifyCustomerEmailActivation</t>
+  </si>
+  <si>
     <t>verifyCustomerSuccessfulLogin</t>
   </si>
   <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>24-11-2024</t>
+    <t>verifyCustomerNavigationAfterLogin</t>
+  </si>
+  <si>
+    <t>verifyCustomerPreferredPackageSelection</t>
+  </si>
+  <si>
+    <t>verifyCustomerNavigationAfterSaving</t>
+  </si>
+  <si>
+    <t>verifyCustomerBasicInfoEntry</t>
+  </si>
+  <si>
+    <t>verifyCustomerStoreInfoEntry</t>
   </si>
   <si>
     <t>verifyCustomerLicenseInfoEntry</t>
+  </si>
+  <si>
+    <t>verifyCustomerCreditCardInfoAndSubmitOrder</t>
+  </si>
+  <si>
+    <t>verifyRecurringPaymentDetails</t>
+  </si>
+  <si>
+    <t>verifyCustomerNavigationAfterPayment</t>
+  </si>
+  <si>
+    <t>verifyCustomerReceiptPageWithRecurringOrderDetails</t>
+  </si>
+  <si>
+    <t>verifyCustomerReceiptDownloadAndDataValidation</t>
+  </si>
+  <si>
+    <t>verifyCustomerReceivedTrialReceipt</t>
+  </si>
+  <si>
+    <t>verifyCustomerNavigationToPackageTabAndSubscriptionData</t>
   </si>
 </sst>
 </file>
@@ -79,8 +127,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
@@ -89,13 +155,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.08984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>
@@ -133,6 +199,204 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s" s="6">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s" s="7">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s" s="9">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s" s="10">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s" s="11">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s" s="12">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s" s="13">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s" s="14">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s" s="15">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s" s="16">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s" s="17">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s" s="18">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -29,7 +29,7 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>29-11-2024</t>
+    <t>01-12-2024</t>
   </si>
   <si>
     <t>verifyNewCustomerRegistrationSubmissionFlow</t>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Method Name</t>
   </si>
@@ -29,19 +29,16 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>01-12-2024</t>
+    <t>02-12-2024</t>
   </si>
   <si>
     <t>verifyCustomerNavigationAfterLogin</t>
   </si>
   <si>
-    <t>verifyStartPaidSubscriptionManually</t>
+    <t>verifyCustomerNewSeasonalLicensePurchase</t>
   </si>
   <si>
     <t>verifyCustomerNavigationAfterPayment</t>
-  </si>
-  <si>
-    <t>verifyProratedPaymentDetails</t>
   </si>
   <si>
     <t>verifyCustomerReceiptPageWithProratedOrderDetails</t>
@@ -94,9 +91,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -109,7 +105,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -197,17 +193,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -29,13 +29,13 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>02-12-2024</t>
+    <t>05-12-2024</t>
   </si>
   <si>
     <t>verifyCustomerNavigationAfterLogin</t>
   </si>
   <si>
-    <t>verifyCustomerNewSeasonalLicensePurchase</t>
+    <t>verifyCustomerAdditionalLicensePurchase</t>
   </si>
   <si>
     <t>verifyCustomerNavigationAfterPayment</t>
@@ -44,7 +44,7 @@
     <t>verifyCustomerReceiptPageWithProratedOrderDetails</t>
   </si>
   <si>
-    <t>verifyCustomerReceivedSeasonalLicenseReceipt</t>
+    <t>verifyCustomerReceivedSubscriptionUpgradeReceipt</t>
   </si>
 </sst>
 </file>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Method Name</t>
   </si>
@@ -35,16 +35,13 @@
     <t>verifyCustomerNavigationAfterLogin</t>
   </si>
   <si>
-    <t>verifyCustomerAdditionalLicensePurchase</t>
+    <t>verifyCustomerNewSeasonalLicensePurchase</t>
   </si>
   <si>
     <t>verifyCustomerNavigationAfterPayment</t>
   </si>
   <si>
     <t>verifyCustomerReceiptPageWithProratedOrderDetails</t>
-  </si>
-  <si>
-    <t>verifyCustomerReceivedSubscriptionUpgradeReceipt</t>
   </si>
 </sst>
 </file>
@@ -91,9 +88,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -105,7 +101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -182,17 +178,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
   <si>
     <t>Method Name</t>
   </si>
@@ -23,25 +23,64 @@
     <t>Execution Data</t>
   </si>
   <si>
+    <t>verifyCustomerNavigationToRegistrationPage</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>12-12-2024</t>
+  </si>
+  <si>
+    <t>verifyNewCustomerRegistrationSubmissionFlow</t>
+  </si>
+  <si>
+    <t>verifyCustomerRegistrationAndLoginNavigation</t>
+  </si>
+  <si>
+    <t>verifyCustomerEmailActivation</t>
+  </si>
+  <si>
     <t>verifyCustomerSuccessfulLogin</t>
   </si>
   <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>05-12-2024</t>
-  </si>
-  <si>
     <t>verifyCustomerNavigationAfterLogin</t>
   </si>
   <si>
-    <t>verifyCustomerNewSeasonalLicensePurchase</t>
+    <t>verifyCustomerPreferredPackageSelection</t>
+  </si>
+  <si>
+    <t>verifyCustomerNavigationAfterSaving</t>
+  </si>
+  <si>
+    <t>verifyCustomerBasicInfoEntry</t>
+  </si>
+  <si>
+    <t>verifyCustomerStoreInfoEntry</t>
+  </si>
+  <si>
+    <t>verifyCustomerLicenseInfoEntry</t>
+  </si>
+  <si>
+    <t>verifyCustomerCreditCardInfoAndSubmitOrder</t>
+  </si>
+  <si>
+    <t>verifyRecurringPaymentDetails</t>
   </si>
   <si>
     <t>verifyCustomerNavigationAfterPayment</t>
   </si>
   <si>
-    <t>verifyCustomerReceiptPageWithProratedOrderDetails</t>
+    <t>verifyCustomerReceiptPageWithRecurringOrderDetails</t>
+  </si>
+  <si>
+    <t>verifyCustomerReceiptDownloadAndDataValidation</t>
+  </si>
+  <si>
+    <t>verifyCustomerReceivedTrialReceipt</t>
+  </si>
+  <si>
+    <t>verifyCustomerNavigationToPackageTabAndSubscriptionData</t>
   </si>
 </sst>
 </file>
@@ -88,8 +127,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -101,13 +155,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.37890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.08984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>
@@ -178,6 +232,171 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s" s="6">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s" s="7">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s" s="9">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s" s="10">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s" s="11">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s" s="12">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s" s="13">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s" s="14">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s" s="15">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s" s="16">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s" s="17">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s" s="18">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>Method Name</t>
   </si>
@@ -23,7 +23,7 @@
     <t>Execution Data</t>
   </si>
   <si>
-    <t>verifyCustomerNavigationToRegistrationPage</t>
+    <t>verifyCustomerSuccessfulLogin</t>
   </si>
   <si>
     <t>Passed</t>
@@ -32,52 +32,22 @@
     <t>12-12-2024</t>
   </si>
   <si>
-    <t>verifyNewCustomerRegistrationSubmissionFlow</t>
-  </si>
-  <si>
-    <t>verifyCustomerRegistrationAndLoginNavigation</t>
-  </si>
-  <si>
-    <t>verifyCustomerEmailActivation</t>
-  </si>
-  <si>
-    <t>verifyCustomerSuccessfulLogin</t>
-  </si>
-  <si>
     <t>verifyCustomerNavigationAfterLogin</t>
   </si>
   <si>
-    <t>verifyCustomerPreferredPackageSelection</t>
-  </si>
-  <si>
-    <t>verifyCustomerNavigationAfterSaving</t>
-  </si>
-  <si>
-    <t>verifyCustomerBasicInfoEntry</t>
-  </si>
-  <si>
-    <t>verifyCustomerStoreInfoEntry</t>
-  </si>
-  <si>
-    <t>verifyCustomerLicenseInfoEntry</t>
-  </si>
-  <si>
-    <t>verifyCustomerCreditCardInfoAndSubmitOrder</t>
-  </si>
-  <si>
-    <t>verifyRecurringPaymentDetails</t>
+    <t>verifyStartPaidSubscriptionManually</t>
+  </si>
+  <si>
+    <t>verifyProratedAndRecurringPaymentDetails</t>
   </si>
   <si>
     <t>verifyCustomerNavigationAfterPayment</t>
   </si>
   <si>
-    <t>verifyCustomerReceiptPageWithRecurringOrderDetails</t>
-  </si>
-  <si>
-    <t>verifyCustomerReceiptDownloadAndDataValidation</t>
-  </si>
-  <si>
-    <t>verifyCustomerReceivedTrialReceipt</t>
+    <t>verifyCustomerReceiptPageWithProratedAndRecurringOrderDetails</t>
+  </si>
+  <si>
+    <t>verifyCustomerReceivedTrialUpgradeReceipt</t>
   </si>
   <si>
     <t>verifyCustomerNavigationToPackageTabAndSubscriptionData</t>
@@ -127,20 +97,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -155,13 +113,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.08984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="61.5703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>
@@ -265,138 +223,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s" s="10">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s" s="11">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s" s="13">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s" s="14">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s" s="15">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s" s="16">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s" s="17">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s" s="18">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Method Name</t>
   </si>
@@ -35,10 +35,7 @@
     <t>verifyCustomerNavigationAfterLogin</t>
   </si>
   <si>
-    <t>verifyStartPaidSubscriptionManually</t>
-  </si>
-  <si>
-    <t>verifyProratedAndRecurringPaymentDetails</t>
+    <t>verifyCustomerAdditionalLicensePurchase</t>
   </si>
   <si>
     <t>verifyCustomerNavigationAfterPayment</t>
@@ -47,10 +44,7 @@
     <t>verifyCustomerReceiptPageWithProratedAndRecurringOrderDetails</t>
   </si>
   <si>
-    <t>verifyCustomerReceivedTrialUpgradeReceipt</t>
-  </si>
-  <si>
-    <t>verifyCustomerNavigationToPackageTabAndSubscriptionData</t>
+    <t>verifyCustomerReceivedSubscriptionUpgradeReceipt</t>
   </si>
 </sst>
 </file>
@@ -97,10 +91,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -113,7 +105,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -201,28 +193,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s" s="8">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -35,16 +35,16 @@
     <t>verifyCustomerNavigationAfterLogin</t>
   </si>
   <si>
-    <t>verifyCustomerAdditionalLicensePurchase</t>
+    <t>verifyCustomerAdditionalLicenseDowngrade</t>
   </si>
   <si>
     <t>verifyCustomerNavigationAfterPayment</t>
   </si>
   <si>
-    <t>verifyCustomerReceiptPageWithProratedAndRecurringOrderDetails</t>
+    <t>verifyCustomerReceiptPageWithRecurringOrderDetails</t>
   </si>
   <si>
-    <t>verifyCustomerReceivedSubscriptionUpgradeReceipt</t>
+    <t>verifyCustomerReceivedSubscriptionDowngradeReceipt</t>
   </si>
 </sst>
 </file>
@@ -111,7 +111,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="61.5703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.9921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -35,7 +35,7 @@
     <t>verifyCustomerNavigationAfterLogin</t>
   </si>
   <si>
-    <t>verifyCustomerAdditionalLicenseDowngrade</t>
+    <t>verifyCustomerPackageUpgrade</t>
   </si>
   <si>
     <t>verifyCustomerNavigationAfterPayment</t>
@@ -44,7 +44,7 @@
     <t>verifyCustomerReceiptPageWithRecurringOrderDetails</t>
   </si>
   <si>
-    <t>verifyCustomerReceivedSubscriptionDowngradeReceipt</t>
+    <t>verifyCustomerReceivedSubscriptionUpgradeReceipt</t>
   </si>
 </sst>
 </file>
@@ -111,7 +111,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.9921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.11328125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -35,7 +35,7 @@
     <t>verifyCustomerNavigationAfterLogin</t>
   </si>
   <si>
-    <t>verifyCustomerPackageUpgrade</t>
+    <t>verifyCustomerPackageUpgradeAndSeasonalPurchase</t>
   </si>
   <si>
     <t>verifyCustomerNavigationAfterPayment</t>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -35,7 +35,7 @@
     <t>verifyCustomerNavigationAfterLogin</t>
   </si>
   <si>
-    <t>verifyCustomerPackageUpgradeAndSeasonalPurchase</t>
+    <t>verifyCustomerPackageDowngradeAndLicensePurchase</t>
   </si>
   <si>
     <t>verifyCustomerNavigationAfterPayment</t>
@@ -111,7 +111,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.11328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.73046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
   <si>
     <t>Method Name</t>
   </si>
@@ -23,19 +23,49 @@
     <t>Execution Data</t>
   </si>
   <si>
+    <t>verifyCustomerNavigationToRegistrationPage</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>13-12-2024</t>
+  </si>
+  <si>
+    <t>verifyNewCustomerRegistrationSubmissionFlow</t>
+  </si>
+  <si>
+    <t>verifyCustomerRegistrationAndLoginNavigation</t>
+  </si>
+  <si>
+    <t>verifyCustomerEmailActivation</t>
+  </si>
+  <si>
     <t>verifyCustomerSuccessfulLogin</t>
   </si>
   <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>12-12-2024</t>
-  </si>
-  <si>
     <t>verifyCustomerNavigationAfterLogin</t>
   </si>
   <si>
-    <t>verifyCustomerPackageDowngradeAndLicensePurchase</t>
+    <t>verifyCustomerPreferredPackageSelection</t>
+  </si>
+  <si>
+    <t>verifyCustomerNavigationAfterSaving</t>
+  </si>
+  <si>
+    <t>verifyCustomerBasicInfoEntry</t>
+  </si>
+  <si>
+    <t>verifyCustomerStoreInfoEntry</t>
+  </si>
+  <si>
+    <t>verifyCustomerLicenseInfoEntry</t>
+  </si>
+  <si>
+    <t>verifyCustomerCreditCardInfoAndSubmitOrder</t>
+  </si>
+  <si>
+    <t>verifyRecurringPaymentDetails</t>
   </si>
   <si>
     <t>verifyCustomerNavigationAfterPayment</t>
@@ -44,7 +74,16 @@
     <t>verifyCustomerReceiptPageWithRecurringOrderDetails</t>
   </si>
   <si>
-    <t>verifyCustomerReceivedSubscriptionUpgradeReceipt</t>
+    <t>verifyCustomerReceiptDownloadAndDataValidation</t>
+  </si>
+  <si>
+    <t>verifyCustomerReceivedTrialReceipt</t>
+  </si>
+  <si>
+    <t>verifyCustomerNavigationToPackageTabAndSubscriptionData</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
@@ -61,7 +100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -76,6 +115,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
@@ -91,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -99,19 +148,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.73046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.08984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>
@@ -193,6 +256,160 @@
         <v>5</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s" s="7">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s" s="9">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s" s="10">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s" s="11">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s" s="12">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s" s="13">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s" s="14">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s" s="15">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s" s="16">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s" s="17">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s" s="18">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s" s="20">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
   <si>
     <t>Method Name</t>
   </si>
@@ -23,25 +23,64 @@
     <t>Execution Data</t>
   </si>
   <si>
+    <t>verifyCustomerNavigationToRegistrationPage</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>17-12-2024</t>
+  </si>
+  <si>
+    <t>verifyNewCustomerRegistrationSubmissionFlow</t>
+  </si>
+  <si>
+    <t>verifyCustomerRegistrationAndLoginNavigation</t>
+  </si>
+  <si>
+    <t>verifyCustomerEmailActivation</t>
+  </si>
+  <si>
     <t>verifyCustomerSuccessfulLogin</t>
   </si>
   <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>13-12-2024</t>
-  </si>
-  <si>
     <t>verifyCustomerNavigationAfterLogin</t>
   </si>
   <si>
-    <t>verifyCustomerPackageUpgradeAndLicensePurchase</t>
+    <t>verifyCustomerPreferredPackageSelection</t>
+  </si>
+  <si>
+    <t>verifyCustomerNavigationAfterSaving</t>
+  </si>
+  <si>
+    <t>verifyCustomerBasicInfoEntry</t>
+  </si>
+  <si>
+    <t>verifyCustomerStoreInfoEntry</t>
+  </si>
+  <si>
+    <t>verifyCustomerLicenseInfoEntry</t>
+  </si>
+  <si>
+    <t>verifyCustomerCreditCardInfoAndSubmitOrder</t>
+  </si>
+  <si>
+    <t>verifyRecurringPaymentDetails</t>
   </si>
   <si>
     <t>verifyCustomerNavigationAfterPayment</t>
   </si>
   <si>
     <t>verifyCustomerReceiptPageWithRecurringOrderDetails</t>
+  </si>
+  <si>
+    <t>verifyCustomerReceiptDownloadAndDataValidation</t>
+  </si>
+  <si>
+    <t>verifyCustomerReceivedTrialReceipt</t>
+  </si>
+  <si>
+    <t>verifyCustomerNavigationToPackageTabAndSubscriptionData</t>
   </si>
   <si>
     <t>Failed</t>
@@ -101,8 +140,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -114,13 +168,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.11328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.08984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>
@@ -185,9 +239,174 @@
         <v>9</v>
       </c>
       <c r="B6" t="s" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s" s="6">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s" s="7">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s" s="9">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s" s="10">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s" s="11">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s" s="12">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s" s="13">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s" s="14">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s" s="15">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s" s="16">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s" s="17">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s" s="18">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s" s="20">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -35,16 +35,16 @@
     <t>verifyCustomerNavigationAfterLogin</t>
   </si>
   <si>
-    <t>verifyCustomerPackageUpgradeAndLicensePurchase</t>
+    <t>verifyCustomerPackageAndLicenseDowngrade</t>
   </si>
   <si>
     <t>verifyCustomerNavigationAfterPayment</t>
   </si>
   <si>
-    <t>verifyCustomerReceiptPageWithProratedAndRecurringOrderDetails</t>
+    <t>verifyCustomerReceiptPageWithRecurringOrderDetails</t>
   </si>
   <si>
-    <t>verifyCustomerReceivedSubscriptionUpgradeReceipt</t>
+    <t>verifyCustomerReceivedSubscriptionDowngradeReceipt</t>
   </si>
 </sst>
 </file>
@@ -111,7 +111,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="61.5703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.9921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -29,22 +29,22 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>17-12-2024</t>
+    <t>18-12-2024</t>
   </si>
   <si>
     <t>verifyCustomerNavigationAfterLogin</t>
   </si>
   <si>
-    <t>verifyCustomerPackageAndLicenseDowngrade</t>
+    <t>verifyCustomerPackageUpgradeAndLicensePurchase</t>
   </si>
   <si>
     <t>verifyCustomerNavigationAfterPayment</t>
   </si>
   <si>
-    <t>verifyCustomerReceiptPageWithRecurringOrderDetails</t>
+    <t>verifyCustomerReceiptPageWithProratedAndRecurringOrderDetails</t>
   </si>
   <si>
-    <t>verifyCustomerReceivedSubscriptionDowngradeReceipt</t>
+    <t>verifyCustomerReceivedSubscriptionUpgradeReceipt</t>
   </si>
 </sst>
 </file>
@@ -111,7 +111,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.9921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="61.5703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
   <si>
     <t>Method Name</t>
   </si>
@@ -23,28 +23,67 @@
     <t>Execution Data</t>
   </si>
   <si>
+    <t>verifyCustomerNavigationToRegistrationPage</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>18-12-2024</t>
+  </si>
+  <si>
+    <t>verifyNewCustomerRegistrationSubmissionFlow</t>
+  </si>
+  <si>
+    <t>verifyCustomerRegistrationAndLoginNavigation</t>
+  </si>
+  <si>
+    <t>verifyCustomerEmailActivation</t>
+  </si>
+  <si>
     <t>verifyCustomerSuccessfulLogin</t>
   </si>
   <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>18-12-2024</t>
-  </si>
-  <si>
     <t>verifyCustomerNavigationAfterLogin</t>
   </si>
   <si>
-    <t>verifyCustomerPackageUpgradeAndLicensePurchase</t>
+    <t>verifyCustomerPreferredPackageSelection</t>
+  </si>
+  <si>
+    <t>verifyCustomerNavigationAfterSaving</t>
+  </si>
+  <si>
+    <t>verifyCustomerBasicInfoEntry</t>
+  </si>
+  <si>
+    <t>verifyCustomerStoreInfoEntry</t>
+  </si>
+  <si>
+    <t>verifyCustomerLicenseInfoEntry</t>
+  </si>
+  <si>
+    <t>verifyCustomerCreditCardInfoAndSubmitOrder</t>
+  </si>
+  <si>
+    <t>verifyRecurringPaymentDetails</t>
   </si>
   <si>
     <t>verifyCustomerNavigationAfterPayment</t>
   </si>
   <si>
-    <t>verifyCustomerReceiptPageWithProratedAndRecurringOrderDetails</t>
-  </si>
-  <si>
-    <t>verifyCustomerReceivedSubscriptionUpgradeReceipt</t>
+    <t>verifyCustomerReceiptPageWithRecurringOrderDetails</t>
+  </si>
+  <si>
+    <t>verifyCustomerReceiptDownloadAndDataValidation</t>
+  </si>
+  <si>
+    <t>verifyCustomerReceivedTrialReceipt</t>
+  </si>
+  <si>
+    <t>verifyCustomerNavigationToPackageTabAndSubscriptionData</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
@@ -61,7 +100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -76,6 +115,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
@@ -91,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -99,19 +148,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="61.5703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.08984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>
@@ -193,6 +256,160 @@
         <v>5</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s" s="7">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s" s="9">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s" s="10">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s" s="11">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s" s="12">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s" s="13">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s" s="14">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s" s="15">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s" s="16">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s" s="17">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s" s="18">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s" s="20">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -35,16 +35,16 @@
     <t>verifyCustomerNavigationAfterLogin</t>
   </si>
   <si>
-    <t>verifyCustomerNewSeasonalLicensePurchase</t>
+    <t>verifyCustomerAdditionalLicensePurchase</t>
   </si>
   <si>
     <t>verifyCustomerNavigationAfterPayment</t>
   </si>
   <si>
-    <t>verifyCustomerReceiptPageWithProratedOrderDetails</t>
+    <t>verifyCustomerReceiptPageWithProratedAndRecurringOrderDetails</t>
   </si>
   <si>
-    <t>verifyCustomerReceivedSeasonalLicenseReceipt</t>
+    <t>verifyCustomerReceivedSubscriptionUpgradeReceipt</t>
   </si>
 </sst>
 </file>
@@ -111,7 +111,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.37890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="61.5703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -35,13 +35,13 @@
     <t>verifyCustomerNavigationAfterLogin</t>
   </si>
   <si>
-    <t>verifyCustomerAdditionalLicenseDowngrade</t>
+    <t>verifyCustomerAdditionalLicenseDowngradeAndSeasonalPurchase</t>
   </si>
   <si>
     <t>verifyCustomerNavigationAfterPayment</t>
   </si>
   <si>
-    <t>verifyCustomerReceiptPageWithRecurringOrderDetails</t>
+    <t>verifyCustomerReceiptPageWithRecurringAndProratedOrderDetails</t>
   </si>
   <si>
     <t>verifyCustomerReceivedSubscriptionDowngradeReceipt</t>
@@ -111,7 +111,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.9921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="61.5703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -35,16 +35,16 @@
     <t>verifyCustomerNavigationAfterLogin</t>
   </si>
   <si>
-    <t>verifyCustomerAdditionalLicenseDowngradeAndSeasonalPurchase</t>
+    <t>verifyCustomerPackageUpgrade</t>
   </si>
   <si>
     <t>verifyCustomerNavigationAfterPayment</t>
   </si>
   <si>
-    <t>verifyCustomerReceiptPageWithRecurringAndProratedOrderDetails</t>
+    <t>verifyCustomerReceiptPageWithProratedAndRecurringOrderDetails</t>
   </si>
   <si>
-    <t>verifyCustomerReceivedSubscriptionDowngradeReceipt</t>
+    <t>verifyCustomerReceivedSubscriptionUpgradeReceipt</t>
   </si>
 </sst>
 </file>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -35,16 +35,16 @@
     <t>verifyCustomerNavigationAfterLogin</t>
   </si>
   <si>
-    <t>verifyCustomerPackageUpgrade</t>
+    <t>verifyCustomerPackageDowngradeAndLicensePurchase</t>
   </si>
   <si>
     <t>verifyCustomerNavigationAfterPayment</t>
   </si>
   <si>
-    <t>verifyCustomerReceiptPageWithProratedAndRecurringOrderDetails</t>
+    <t>verifyCustomerReceiptPageWithRecurringOrderDetails</t>
   </si>
   <si>
-    <t>verifyCustomerReceivedSubscriptionUpgradeReceipt</t>
+    <t>verifyCustomerReceivedSubscriptionDowngradeReceipt</t>
   </si>
 </sst>
 </file>
@@ -111,7 +111,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="61.5703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.9921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -35,7 +35,7 @@
     <t>verifyCustomerNavigationAfterLogin</t>
   </si>
   <si>
-    <t>verifyCustomerPackageDowngradeAndLicensePurchase</t>
+    <t>verifyCustomerPackageAndLicenseDowngrade</t>
   </si>
   <si>
     <t>verifyCustomerNavigationAfterPayment</t>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -35,16 +35,16 @@
     <t>verifyCustomerNavigationAfterLogin</t>
   </si>
   <si>
-    <t>verifyCustomerPackageAndLicenseDowngrade</t>
+    <t>verifyCustomerPackageUpgradeAndLicensePurchase</t>
   </si>
   <si>
     <t>verifyCustomerNavigationAfterPayment</t>
   </si>
   <si>
-    <t>verifyCustomerReceiptPageWithRecurringOrderDetails</t>
+    <t>verifyCustomerReceiptPageWithProratedAndRecurringOrderDetails</t>
   </si>
   <si>
-    <t>verifyCustomerReceivedSubscriptionDowngradeReceipt</t>
+    <t>verifyCustomerReceivedSubscriptionUpgradeReceipt</t>
   </si>
 </sst>
 </file>
@@ -111,7 +111,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.9921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="61.5703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Method Name</t>
   </si>
@@ -23,13 +23,19 @@
     <t>Execution Data</t>
   </si>
   <si>
-    <t>got_to_registration_page</t>
+    <t>verifyUserSuccessfulLogin</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>18-12-2024</t>
+  </si>
+  <si>
+    <t>verifyUserNavigationAfterLogin</t>
   </si>
   <si>
     <t>Passed</t>
-  </si>
-  <si>
-    <t>26-10-2024</t>
   </si>
 </sst>
 </file>
@@ -46,12 +52,22 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
@@ -76,22 +92,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.87109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>
@@ -118,6 +135,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Method Name</t>
   </si>
@@ -21,21 +21,6 @@
   </si>
   <si>
     <t>Execution Data</t>
-  </si>
-  <si>
-    <t>verifyUserSuccessfulLogin</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>18-12-2024</t>
-  </si>
-  <si>
-    <t>verifyUserNavigationAfterLogin</t>
-  </si>
-  <si>
-    <t>Passed</t>
   </si>
 </sst>
 </file>
@@ -52,32 +37,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -92,23 +57,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="14.046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>
@@ -124,28 +87,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Method Name</t>
   </si>
@@ -21,6 +21,21 @@
   </si>
   <si>
     <t>Execution Data</t>
+  </si>
+  <si>
+    <t>verifyUserSuccessfulLogin</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>19-12-2024</t>
+  </si>
+  <si>
+    <t>verifyUserNavigationAfterLogin</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
 </sst>
 </file>
@@ -37,12 +52,32 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -57,21 +92,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>
@@ -87,6 +124,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Method Name</t>
   </si>
@@ -26,16 +26,13 @@
     <t>verifyUserSuccessfulLogin</t>
   </si>
   <si>
-    <t>Failed</t>
+    <t>Passed</t>
   </si>
   <si>
     <t>19-12-2024</t>
   </si>
   <si>
     <t>verifyUserNavigationAfterLogin</t>
-  </si>
-  <si>
-    <t>Passed</t>
   </si>
 </sst>
 </file>
@@ -52,22 +49,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
@@ -95,7 +82,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -140,7 +127,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -32,7 +32,7 @@
     <t>19-12-2024</t>
   </si>
   <si>
-    <t>verifyUserNavigationAfterLogin</t>
+    <t>verifyHomeMenuVisibilityAfterLogin</t>
   </si>
 </sst>
 </file>
@@ -95,7 +95,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.58203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Method Name</t>
   </si>
@@ -29,10 +29,16 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>19-12-2024</t>
+    <t>20-12-2024</t>
   </si>
   <si>
     <t>verifyHomeMenuVisibilityAfterLogin</t>
+  </si>
+  <si>
+    <t>verifyCustomerNavigationAfterLogin</t>
+  </si>
+  <si>
+    <t>verifyCustomerValueAddition</t>
   </si>
 </sst>
 </file>
@@ -79,8 +85,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
@@ -89,13 +97,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.58203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.71484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>
@@ -133,6 +141,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>Method Name</t>
   </si>
@@ -23,22 +23,13 @@
     <t>Execution Data</t>
   </si>
   <si>
-    <t>verifyUserSuccessfulLogin</t>
+    <t>verifyAbandonReasonValueListAddition</t>
   </si>
   <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>20-12-2024</t>
-  </si>
-  <si>
-    <t>verifyHomeMenuVisibilityAfterLogin</t>
-  </si>
-  <si>
-    <t>verifyCustomerNavigationAfterLogin</t>
-  </si>
-  <si>
-    <t>verifyCustomerValueAddition</t>
+    <t>22-12-2024</t>
   </si>
 </sst>
 </file>
@@ -85,10 +76,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
@@ -97,13 +86,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.71484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.42578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>
@@ -132,7 +121,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s" s="2">
         <v>4</v>
@@ -141,28 +130,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s" s="4">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>Method Name</t>
   </si>
@@ -23,13 +23,22 @@
     <t>Execution Data</t>
   </si>
   <si>
-    <t>verifyAbandonReasonValueListAddition</t>
+    <t>verifyUserSuccessfulLogin</t>
   </si>
   <si>
     <t>Passed</t>
   </si>
   <si>
     <t>22-12-2024</t>
+  </si>
+  <si>
+    <t>verifyHomeMenuVisibilityAfterLogin</t>
+  </si>
+  <si>
+    <t>verifyCustomerNavigationAfterLogin</t>
+  </si>
+  <si>
+    <t>verifyAbandonReasonValueListAdditions</t>
   </si>
 </sst>
 </file>
@@ -76,8 +85,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
@@ -86,13 +98,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.28515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>
@@ -121,7 +133,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s" s="2">
         <v>4</v>
@@ -130,6 +142,39 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>Method Name</t>
   </si>
@@ -29,13 +29,16 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>18-12-2024</t>
+    <t>26-12-2024</t>
   </si>
   <si>
     <t>verifyCustomerNavigationAfterLogin</t>
   </si>
   <si>
-    <t>verifyCustomerPackageUpgradeAndLicensePurchase</t>
+    <t>verifyStartPaidSubscriptionManually</t>
+  </si>
+  <si>
+    <t>verifyProratedAndRecurringPaymentDetails</t>
   </si>
   <si>
     <t>verifyCustomerNavigationAfterPayment</t>
@@ -44,7 +47,10 @@
     <t>verifyCustomerReceiptPageWithProratedAndRecurringOrderDetails</t>
   </si>
   <si>
-    <t>verifyCustomerReceivedSubscriptionUpgradeReceipt</t>
+    <t>verifyCustomerReceivedTrialUpgradeReceipt</t>
+  </si>
+  <si>
+    <t>verifyCustomerNavigationToPackageTabAndSubscriptionData</t>
   </si>
 </sst>
 </file>
@@ -91,8 +97,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -105,7 +113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -193,6 +201,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s" s="7">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>Method Name</t>
   </si>
@@ -29,7 +29,7 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>22-12-2024</t>
+    <t>27-12-2024</t>
   </si>
   <si>
     <t>verifyHomeMenuVisibilityAfterLogin</t>
@@ -38,7 +38,7 @@
     <t>verifyCustomerNavigationAfterLogin</t>
   </si>
   <si>
-    <t>verifyAbandonReasonValueListAdditions</t>
+    <t>verifyTipsCategoryValueListAddition</t>
   </si>
 </sst>
 </file>
@@ -85,8 +85,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -98,13 +100,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.71484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>
@@ -175,6 +177,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s" s="6">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s" s="7">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Method Name</t>
   </si>
@@ -29,16 +29,13 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>27-12-2024</t>
+    <t>28-12-2024</t>
   </si>
   <si>
     <t>verifyHomeMenuVisibilityAfterLogin</t>
   </si>
   <si>
-    <t>verifyCustomerNavigationAfterLogin</t>
-  </si>
-  <si>
-    <t>verifyTipsCategoryValueListAddition</t>
+    <t>verifyValueTypeSettingMap</t>
   </si>
 </sst>
 </file>
@@ -85,12 +82,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -100,13 +93,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.71484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.58203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>
@@ -155,50 +148,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s" s="4">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Test Results/Test_Result.xlsx
+++ b/Test Results/Test_Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>Method Name</t>
   </si>
@@ -35,7 +35,13 @@
     <t>verifyHomeMenuVisibilityAfterLogin</t>
   </si>
   <si>
-    <t>verifyValueTypeSettingMap</t>
+    <t>verifyCustomerNavigationAfterLogin</t>
+  </si>
+  <si>
+    <t>verifyCustomerDataEntry</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
@@ -52,7 +58,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -67,6 +73,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
@@ -82,24 +98,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.58203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.71484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5" customWidth="true" bestFit="true"/>
   </cols>
@@ -148,6 +170,72 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s" s="5">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
